--- a/fortigate_devices_test.xlsx
+++ b/fortigate_devices_test.xlsx
@@ -2,25 +2,41 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fnadeer\Desktop\Python test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://steria-my.sharepoint.com/personal/firoz_nadeer_soprasteria_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E4BC59-77DC-43B4-8548-38AC5B26B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9558F4E3-5392-4253-AED7-8C248917E938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F55EB81F-F5C8-4BA6-B3BF-55CD5E1B8AF5}"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="2820" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{51FCC202-D1CB-4EDF-ADDF-14937C849CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>IP Address</t>
   </si>
@@ -34,98 +50,341 @@
     <t>Password</t>
   </si>
   <si>
+    <t>10.108.3.145</t>
+  </si>
+  <si>
+    <t>ANGOLA-NGOLA</t>
+  </si>
+  <si>
+    <t>ECN01_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>k27[4yz$VR5uM~</t>
+  </si>
+  <si>
+    <t>ANGOLA-DC</t>
+  </si>
+  <si>
+    <t>evabssi_EU_mco</t>
+  </si>
+  <si>
+    <t>P299[q;dp+FC</t>
+  </si>
+  <si>
+    <t>10.105.3.209</t>
+  </si>
+  <si>
+    <t>ANGOLA-FUNDA</t>
+  </si>
+  <si>
+    <t>CBL_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>Fdf04154!ffdA</t>
+  </si>
+  <si>
+    <t>10.106.3.217</t>
+  </si>
+  <si>
+    <t>ANGOLA-COBEJE</t>
+  </si>
+  <si>
+    <t>CBJ_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>[kzV7yMR2u$5~4</t>
+  </si>
+  <si>
+    <t>10.105.21.1</t>
+  </si>
+  <si>
+    <t>ANGOLA-NOCAL</t>
+  </si>
+  <si>
+    <t>NOC_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>]5u)j5u*JJUg92</t>
+  </si>
+  <si>
+    <t>10.107.35.201</t>
+  </si>
+  <si>
+    <t>ANGOLA-SOBA</t>
+  </si>
+  <si>
+    <t>SBA_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>MR5y42~kz[V$7u</t>
+  </si>
+  <si>
+    <t>10.107.18.89</t>
+  </si>
+  <si>
+    <t>ANGOLA-NOCEBO</t>
+  </si>
+  <si>
+    <t>NCB_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>2[RM5kVu$4~7yz</t>
+  </si>
+  <si>
+    <t>10.107.4.57</t>
+  </si>
+  <si>
+    <t>ANGOLA-VIDRUL</t>
+  </si>
+  <si>
+    <t>VID_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>5z~42$V[yk7MuR</t>
+  </si>
+  <si>
+    <t>10.107.49.25</t>
+  </si>
+  <si>
+    <t>ANGOLA-CERBAB</t>
+  </si>
+  <si>
+    <t>CRB_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>V2R7~[$5uk4yzM</t>
+  </si>
+  <si>
+    <t>10.224.26.160</t>
+  </si>
+  <si>
+    <t>SOBRAGUI-BONFI</t>
+  </si>
+  <si>
+    <t>evabssi_eu_mco</t>
+  </si>
+  <si>
+    <t>b5GsU323C6sqaS.</t>
+  </si>
+  <si>
+    <t>10.224.10.160</t>
+  </si>
+  <si>
+    <t>SOBRAGUI-MADINA</t>
+  </si>
+  <si>
+    <t>8HxR8cy87Mf4dL.</t>
+  </si>
+  <si>
+    <t>10.242.10.140</t>
+  </si>
+  <si>
+    <t>BRALICO_USINE_AIRTEL</t>
+  </si>
+  <si>
+    <t>]4;gTS7S,v8z</t>
+  </si>
+  <si>
+    <t>10.242.74.140</t>
+  </si>
+  <si>
+    <t>BRALICO_OYO</t>
+  </si>
+  <si>
+    <t>N3x#9K3G{k+a</t>
+  </si>
+  <si>
+    <t>10.242.42.140</t>
+  </si>
+  <si>
+    <t>BRALICO_BRAZZA</t>
+  </si>
+  <si>
+    <t>{{y5V.Efr23C</t>
+  </si>
+  <si>
+    <t>10.242.58.140</t>
+  </si>
+  <si>
+    <t>BRALICO_DOLISIE</t>
+  </si>
+  <si>
+    <t>,.PR25Y&amp;kk3i</t>
+  </si>
+  <si>
+    <t>10.242.26.140</t>
+  </si>
+  <si>
+    <t>BRALICO_DG</t>
+  </si>
+  <si>
+    <t>QA&gt;2Fb8s.j&gt;3</t>
+  </si>
+  <si>
+    <t>10.242.90.140</t>
+  </si>
+  <si>
+    <t>BRALICO_POINTENOIRE</t>
+  </si>
+  <si>
+    <t>~4fcJd}k^R99N5</t>
+  </si>
+  <si>
+    <t>10.114.241.24</t>
+  </si>
+  <si>
+    <t>BRACONGO_SIEGE</t>
+  </si>
+  <si>
+    <t>^GC3sceF%6R5d9^</t>
+  </si>
+  <si>
+    <t>10.113.250.130</t>
+  </si>
+  <si>
+    <t>BRACONGO_CLE_DES_CHATEAUX</t>
+  </si>
+  <si>
+    <t>BCG08_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>974-hTi@+vY3vJ</t>
+  </si>
+  <si>
+    <t>172.25.226.1</t>
+  </si>
+  <si>
+    <t>BRAKINA_BOBO</t>
+  </si>
+  <si>
+    <t>S&amp;pc^Lr$75X7uV3</t>
+  </si>
+  <si>
+    <t>10.226.10.140</t>
+  </si>
+  <si>
+    <t>BRAKINA_OUAGA</t>
+  </si>
+  <si>
+    <t>P@ssW0rd2027</t>
+  </si>
+  <si>
+    <t>41.204.109.155</t>
+  </si>
+  <si>
+    <t>STAR_SIEGE</t>
+  </si>
+  <si>
+    <t>$9Kr*Z9f.24UdCx</t>
+  </si>
+  <si>
+    <t>10.116.9.250</t>
+  </si>
+  <si>
+    <t>BRASIMBA_LUBUMBASHI</t>
+  </si>
+  <si>
+    <t>e.eu</t>
+  </si>
+  <si>
+    <t>Simb@LaB!3rrEa5000</t>
+  </si>
+  <si>
+    <t>10.116.25.250</t>
+  </si>
+  <si>
+    <t>BRASIMBA_BENI</t>
+  </si>
+  <si>
+    <t>10.116.41.250</t>
+  </si>
+  <si>
+    <t>BRASIMBA_KOLWEZI</t>
+  </si>
+  <si>
+    <t>172.31.244.233</t>
+  </si>
+  <si>
+    <t>ICUBE</t>
+  </si>
+  <si>
+    <t>EvaTempP@$$2022</t>
+  </si>
+  <si>
+    <t>10.200.9.205</t>
+  </si>
+  <si>
+    <t>SOBRAGA_OWENDO</t>
+  </si>
+  <si>
+    <t>GA0_EVABSSI_EU_MCO</t>
+  </si>
+  <si>
+    <t>+cHd3NW2{89i.c</t>
+  </si>
+  <si>
+    <t>10.200.25.200</t>
+  </si>
+  <si>
+    <t>SOBRAGA_PORT_GENTIL</t>
+  </si>
+  <si>
+    <t>7n&amp;LS47!mE2Mk-q</t>
+  </si>
+  <si>
+    <t>10.200.41.200</t>
+  </si>
+  <si>
+    <t>SOBRAGA_FRANCEVILLE</t>
+  </si>
+  <si>
+    <t>xEdL69QC^&amp;u8^7a</t>
+  </si>
+  <si>
+    <t>10.200.73.200</t>
+  </si>
+  <si>
+    <t>SOBRAGA_LECONI</t>
+  </si>
+  <si>
+    <t>EvaGroup@udi2030</t>
+  </si>
+  <si>
+    <t>10.200.57.200</t>
+  </si>
+  <si>
+    <t>SOBRAGA_MOUILA</t>
+  </si>
+  <si>
+    <t>8C.rg=A3gN&amp;Q8m4</t>
+  </si>
+  <si>
+    <t>10.200.89.200</t>
+  </si>
+  <si>
+    <t>SOBRAGA_OYEM</t>
+  </si>
+  <si>
+    <t>X.94iyFU/z2#G2i</t>
+  </si>
+  <si>
+    <t>10.200.105.200</t>
+  </si>
+  <si>
+    <t>SOBRAGA_SOVINGAB</t>
+  </si>
+  <si>
     <t>Backup Status</t>
   </si>
   <si>
-    <t>10.108.3.145</t>
-  </si>
-  <si>
-    <t>NGOLA</t>
-  </si>
-  <si>
-    <t>ECN01_EVABSSI_EU_MCO</t>
-  </si>
-  <si>
-    <t>Fdf04154!ffdA</t>
-  </si>
-  <si>
-    <t>10.105.3.209</t>
-  </si>
-  <si>
-    <t>FUNDA</t>
-  </si>
-  <si>
-    <t>CBL_EVABSSI_EU_MCO</t>
-  </si>
-  <si>
-    <t>10.106.3.217</t>
-  </si>
-  <si>
-    <t>COBEJE</t>
-  </si>
-  <si>
-    <t>CBJ_EVABSSI_EU_MCO</t>
-  </si>
-  <si>
-    <t>10.105.21.1</t>
-  </si>
-  <si>
-    <t>NOCAL</t>
-  </si>
-  <si>
-    <t>NOC_EVABSSI_EU_MCO</t>
-  </si>
-  <si>
-    <t>10.107.35.201</t>
-  </si>
-  <si>
-    <t>SOBA</t>
-  </si>
-  <si>
-    <t>SBA_EVABSSI_EU_MCO</t>
-  </si>
-  <si>
-    <t>10.107.18.89</t>
-  </si>
-  <si>
-    <t>NOCEBO</t>
-  </si>
-  <si>
-    <t>NCB_EVABSSI_EU_MCO</t>
-  </si>
-  <si>
-    <t>10.107.4.57</t>
-  </si>
-  <si>
-    <t>VIDRUL</t>
-  </si>
-  <si>
-    <t>VID_EVABSSI_EU_MCO</t>
-  </si>
-  <si>
-    <t>k27[4yz$VR5uM~</t>
-  </si>
-  <si>
-    <t>]5u)j5u*JJUg92</t>
-  </si>
-  <si>
-    <t>MR5y42~kz[V$7u</t>
-  </si>
-  <si>
-    <t>[kzV7yMR2u$5~4</t>
-  </si>
-  <si>
-    <t>2[RM5kVu$4~7yz</t>
-  </si>
-  <si>
-    <t>5z~42$V[yk7MuR</t>
+    <t>172.27.104.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +396,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,17 +440,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -207,44 +474,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -271,14 +538,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -305,6 +590,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -316,184 +619,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0C03D8-508E-4246-9909-4700C55F229F}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="42.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -510,49 +789,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -566,53 +845,417 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 – Usage restreint</oddFooter>
